--- a/src/test/resources/DataProvider/RWC.xlsx
+++ b/src/test/resources/DataProvider/RWC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Selenium\Modot_celtic-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EB62E7-781C-4EC7-B0F6-16EF6E657B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB9917-2F97-4F93-9014-DC32371A6C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="6" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="4" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="VehicleTab" sheetId="4" r:id="rId6"/>
     <sheet name="VehicleAmendTab" sheetId="11" r:id="rId7"/>
     <sheet name="VehicleDeleteTab" sheetId="12" r:id="rId8"/>
-    <sheet name="BillingTab" sheetId="5" r:id="rId9"/>
-    <sheet name="Payment" sheetId="6" r:id="rId10"/>
-    <sheet name="inventoryTab" sheetId="7" r:id="rId11"/>
+    <sheet name="VehicleAddTab" sheetId="13" r:id="rId9"/>
+    <sheet name="BillingTab" sheetId="5" r:id="rId10"/>
+    <sheet name="Payment" sheetId="6" r:id="rId11"/>
+    <sheet name="inventoryTab" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
   <si>
     <t>Account#</t>
   </si>
@@ -408,13 +409,127 @@
   </si>
   <si>
     <t>AZ</t>
+  </si>
+  <si>
+    <t>Juris Count</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>VIN1</t>
+  </si>
+  <si>
+    <t>9879874654654650</t>
+  </si>
+  <si>
+    <t>BodyType</t>
+  </si>
+  <si>
+    <t>RT - Road Truck</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>ACRO - ACR</t>
+  </si>
+  <si>
+    <t>Axle</t>
+  </si>
+  <si>
+    <t>UnladenWeight</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>PurchaseDate</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>TVRDays</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Type Juris</t>
+  </si>
+  <si>
+    <t>Title No</t>
+  </si>
+  <si>
+    <t>State Plate type1</t>
+  </si>
+  <si>
+    <t>State Plate type2</t>
+  </si>
+  <si>
+    <t>LO - Local</t>
+  </si>
+  <si>
+    <t>BY - Beyond Local</t>
+  </si>
+  <si>
+    <t>StatePlate Weight</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>B-Bus</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>6-11000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>78000</t>
+  </si>
+  <si>
+    <t>4-80000</t>
+  </si>
+  <si>
+    <t>O - Owner</t>
+  </si>
+  <si>
+    <t>Safety Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Plate </t>
+  </si>
+  <si>
+    <t>04AB9S</t>
+  </si>
+  <si>
+    <t>Existing Plate</t>
+  </si>
+  <si>
+    <t>01AB5C</t>
+  </si>
+  <si>
+    <t>Noof vehicles to Add</t>
+  </si>
+  <si>
+    <t>8-78000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +568,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,6 +621,8 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -875,6 +998,67 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71997D60-9F47-4305-9365-2569E8403E09}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0865D-51BA-4EBA-8F05-EB6A1F6AB5E9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -941,7 +1125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDCC09-7743-41A7-AF6E-E431FA46AFBB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1231,15 +1415,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCF9E6-80A0-4CF6-9F60-DA959CA4A335}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1252,8 +1436,8 @@
       <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
+      <c r="E1" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
@@ -1261,8 +1445,35 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1275,8 +1486,20 @@
       <c r="D2" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1284,19 +1507,46 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>120</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1559,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1400,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05706F7-92D1-4F40-8339-433B7AA2EF90}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1456,62 +1706,411 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71997D60-9F47-4305-9365-2569E8403E09}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA4F45-600A-4DE9-936F-A1891E4C5250}">
+  <dimension ref="A1:BL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>1012019</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="R6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>